--- a/uploads2/kames aws.xlsx
+++ b/uploads2/kames aws.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06979572-790D-4C23-9ECA-A7343B3B12E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8582A8C-620A-4198-99B9-499B5CEA904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056B89C3-C8A3-4629-BF66-9C2292CBAD08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,39 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dtijhcmaa/image/upload/v1695208850/images/image/xduvqlcys1lw95xaskzb.jpg</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>cng</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedan </t>
+  </si>
+  <si>
+    <t>suv</t>
+  </si>
+  <si>
+    <t>fuelType</t>
+  </si>
+  <si>
+    <t>bodyType</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>this is desciption</t>
   </si>
 </sst>
 </file>
@@ -459,172 +492,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0676D59-190F-4332-85AD-54920780E9E7}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>300000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{21837CE1-62CF-46F5-9B0D-8B2E9D3F5C2B}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{7FF3B37C-1C6F-4A3F-9B6A-6A084D672F46}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{8DF2DEC9-0098-464F-82AF-EEAAEAC7F618}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{21837CE1-62CF-46F5-9B0D-8B2E9D3F5C2B}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{7FF3B37C-1C6F-4A3F-9B6A-6A084D672F46}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{8DF2DEC9-0098-464F-82AF-EEAAEAC7F618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
